--- a/input/Data.xlsx
+++ b/input/Data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DemoA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="keys" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -28,6 +28,42 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>Key1</t>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -359,31 +395,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -393,12 +442,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
